--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(C)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(C).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(C)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(C).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ca</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Écozone paléarctique: plantes à graines par nom scientifique (CA)
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,16 +558,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ced
-Cedrelinga
+          <t>Ced</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cedrelinga
 Cedrus - fam. Pinacées (arbre)
 Cedrus deodara - Cèdre de l'Himalaya
 Cedrus libani - Cèdre du Liban
 Cedrus libani var. atlantica - Cèdre de l'Atlas
 Cedrus libani var. brevifolia -
-Cedrus libani var. stenocoma -
-Cel
-Celastrus - fam. Célastracées
+Cedrus libani var. stenocoma -</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ce</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Celastrus - fam. Célastracées
 Celastrus scandens - Bourreau des arbres
 Celtis - fam. Ulmacées
 Celtis australis - Micocoulier de Provence
@@ -561,9 +614,43 @@
 Celosia - fam. Amaranthacées
 Celosia argentea -  Célosie crête de coq
 Celosia fontana -  Célosie à panache fontana
-Celosia pampas -  Célosie à panache pampas
-Cen
-Cenostigma
+Celosia pampas -  Célosie à panache pampas</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ce</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cen</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cenostigma
 Centaurea - fam. Astéracées
 Centaurea aspera - Centaurée rude
 Centaurea corymbosa - Centaurée de la Clape
@@ -581,9 +668,43 @@
 Centranthus trinervis - Centranthe à trois nervures
 Centranthus ruber - Centranthe rouge ou lilas d'Espagne
 Centrolobium
-Centrosema
-Cep
-Cephalanthera - fam. Orchidacées
+Centrosema</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ce</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cep</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cephalanthera - fam. Orchidacées
 Cephalanthera cucullata
 Cephalanthera damasomium - Céphalanthère de Damas
 Cephalanthera epipactoides - Céphalanthère fausse-elléborine
@@ -598,9 +719,43 @@
 Cephalotaxus - fam. Céphalotaxacées
 Cephalotaxus harringtonia
 Cephalotaxus fortunei
-Cephalotus
-Cer
-Cerastium - fam. Caryophyllacées
+Cephalotus</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ce</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cer</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cerastium - fam. Caryophyllacées
 Cerastium arvense - Cerastium
 Cerastium beeringianum - Cerastium
 Cerastium tomentosum - Cerastium ou « Ceraiste » ou « Corbeille d'Argent »
@@ -615,73 +770,114 @@
 Cerochlamis pachyphylla forma albiflora
 Ceropegia
 Ceropegia linearis
- Ceropegia linearis woodii - Chaîne des cœurs
-Ces
-Cestrum
+ Ceropegia linearis woodii - Chaîne des cœurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ce</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cestrum
 Cestrum nocturnum
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Ch</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Écozone paléarctique: plantes à graines par nom scientifique (CH)
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Ci</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cic
-Cicer - fam. Fabacées
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cic</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cicer - fam. Fabacées
 Cicer arietinum - Pois chiche
 Cicerbita - fam. Astéracées
 Ciberbita alpina - Laitue des Alpes
@@ -694,15 +890,83 @@
 Ciclospermum Lagasca
 Cicuta
 Cicuta maculata
-Cicuta virosa
-Cin
-Cineraria
+Cicuta virosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ci</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cin</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cineraria
 Cineraria maritima voir à  Senecio maritima
 Cinna
 Cinna arundinacea -  Cinna roseau
-Cinna latifolia -  Cinna à larges feuilles
-Cir
-Circaea
+Cinna latifolia -  Cinna à larges feuilles</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ci</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cir</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Circaea
 Circaea alpina
 Cirsium - fam. Astéracées
 Cirsium acaule - Cirse acaule
@@ -711,9 +975,43 @@
 Cirsium monspessulanum - Cirse de Montpellier
 Cirsium oleraceum - Cirse maraîcher
 Cirsium palustre - Cirse des marais
-Cirsium vulgare - Cirse commun
-Cis
-Cistanchia
+Cirsium vulgare - Cirse commun</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ci</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cis</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cistanchia
 Cistanchia phyllipea - Cistanque
 Cistus - fam. Cistacées
 Cistus albidus - Ciste
@@ -728,42 +1026,81 @@
 Cistus palhinhae - Ciste
 Cistus populifolius - Ciste
 Cistus psilocepalus - Ciste
-Cistus salvifolius -  Ciste à feuilles de sauge
-Cit
-Citrullus - fam. Cucurbitacées
+Cistus salvifolius -  Ciste à feuilles de sauge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ci</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cit</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Citrullus - fam. Cucurbitacées
 Citrullus vulgaris - Pastèque ou « melon d'eau »
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Cl</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cla
-Clarkia - fam. Œnothéracées
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cla</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Clarkia - fam. Œnothéracées
 Clarkia amoena ou Clarkia grandiflora -  Godetia fleur de satin
 Clarkia elegans -  Clarkia élégant
 Clarkia pulchella
@@ -771,9 +1108,43 @@
 Clarkia stellata - Clarkia
 Clarkia tenella - Clarkia
 Clarkia unguiculata -  Clarkia godecia
-Clathrotropis
-Cle
-Cleobulia
+Clathrotropis</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cl</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cle</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Cleobulia
 Clematis - fam. Ranunculacées
 Clematis alpina - Clématite des Alpes
 Clematis flammula - Clématite flammette ou Clématite brûlante
@@ -792,9 +1163,43 @@
 Clerodendrum fargesii - Clérodendron
 Clerodendron paniculatum -  Arbre à pagode
 Clerodendrum thomsoniae - Clérodendron
-Clerodendrum trichotomum - Clérodendron
-Cli
-Clinopodium - fam. Lamiacées
+Clerodendrum trichotomum - Clérodendron</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cl</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cli</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clinopodium - fam. Lamiacées
 Clinopodium vulgare - Clinopode commun
 Clitoria
 Clivia
@@ -803,101 +1208,147 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Cn</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cne
-Cneorum
-Cneorum tricoccum
-Cni
-Cnicus - fam. Astéracées
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cne</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cneorum
+Cneorum tricoccum</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cn</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cni</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnicus - fam. Astéracées
 Cnicus benedictus - Chardon béni
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Co</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Écozone paléarctique: plantes à graines par nom scientifique (CO)
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cra
-Crambe
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cra</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Crambe
 Crambe hispanica - Crambe d'Espagne
 Crambe maritima - Chou marin
 Cranocarpus
@@ -916,15 +1367,117 @@
 Crataegus sanguinea -
 Crataegus tanacetifolia -
 Crataegus wilsonii -
-Cratylia
-Cre
-Cressa
-Cressa cretica -  Cressa de Crète
-Cri
-Crithmum
-Crithmum maritimum -  Criste maritime
-Cro
-Crocus - fam. Iridacées - 80 espèces
+Cratylia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cre</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cressa
+Cressa cretica -  Cressa de Crète</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cri</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Crithmum
+Crithmum maritimum -  Criste maritime</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cro</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Crocus - fam. Iridacées - 80 espèces
 Crocus biflorus
 Crocus chrysanthus - Crocus botanique
 Crocus corsicus - Crocus de Corse
@@ -933,11 +1486,79 @@
 Crocus sieberi albus
 Crocus vernus - Crocus printanier ou « Crocus à grande fleur »
 Crocus versicolor
-Crotalaria
-Cru
-Crudia
-Cry
-Cryophitum
+Crotalaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cru</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Crudia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cry</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryophitum
 Cryophitum crystallinum - Ficoïde glaciale, Aizoacée
 Cryptanthus
 Cryptanthus bivittatus - Cryptante
@@ -949,34 +1570,39 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Cu</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuc
-Cucubalus
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cuc</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Cucubalus
 Cucubalus baccifer
 Cucumis - fam. Cucurbitacées
 Cucumis melo - Melon
@@ -985,9 +1611,43 @@
 Cucurbita ficifolia - Courge de Siam
 Cucurbita maxima - Potiron ou Giraumon
 Cucurbita moschata - Courge musquée ou Butternut
-Cucurbita pepo - Courgette ou « Courge d'été » ou « Patisson » ou « Coloquinte » ou « Cornue d'hiver » ou « Reine de la table » ou « Acorn » ou « Courge d'hiver »
-Cup
-Cuperus
+Cucurbita pepo - Courgette ou « Courge d'été » ou « Patisson » ou « Coloquinte » ou « Cornue d'hiver » ou « Reine de la table » ou « Acorn » ou « Courge d'hiver »</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cup</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Cuperus
 Cuperus lupulinus
 Cuperus lupulinus macilentus
 Cupressus - fam. Cupressacées
@@ -997,12 +1657,80 @@
 Cupressus funebris -  Cyprès de Chine
 Cupressus gigantea -  Cyprès de Tibet
 Cupressus sempervirens -  Cyprès de Provence
-Cupressus torulosa -  Cyprès de l'Himalaya
-Cur
-Curcuma - fam. Zingibéracées
-Curcuma longa - Curcuma
-Cus
-Cuscuta - Convolvulacées
+Cupressus torulosa -  Cyprès de l'Himalaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Curcuma - fam. Zingibéracées
+Curcuma longa - Curcuma</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cus</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuscuta - Convolvulacées
 Cuscuta campestris
 Cuscuta epilinum
 Cuscuta epithymum - Cuscute du thym
@@ -1019,36 +1747,72 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Cy</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyathea - (fougère)
-Cyathea cooperi ou Alsophila cooperi ou Sphaeropteris cooperi - Fougère arborescente
-Cyc
-Cyclamen - fam. Primulacées (plante vivace à rhizome)
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Cyathea - (fougère)
+Cyathea cooperi ou Alsophila cooperi ou Sphaeropteris cooperi - Fougère arborescente</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Cy</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cyc</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Cyclamen - fam. Primulacées (plante vivace à rhizome)
 Cyclamen balearicum - Cyclamen des Baléares
 Cyclamen corsicus - Cyclamen de Corse
 Cyclamen europaenum ou Cyclamen purpureus - Cyclamen d'Europe
@@ -1056,22 +1820,124 @@
 Cyclamen persica - Cyclamen de Perse ou « Cyclamen de printemps » ou « Cyclamen des jardiniers »
 Cyclamen pseudo-ibericum
 Cyclamen repandum
-Cyclolobium
-Cyd
-Cydonia - fam. Rosacées
+Cyclolobium</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cy</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cyd</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Cydonia - fam. Rosacées
 Cydonia japonica
 Cydonia oblonga - Cognassier
-Cydonia sinensis
-Cym
-Cymbalaria - fam. Scrofulariacées
+Cydonia sinensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cy</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cym</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Cymbalaria - fam. Scrofulariacées
 Cymbalaria muralis - Cymbalaire des murs
 Cymbidium
 Cymbidium Cultivars - Cymbidium
 Cymbosema
 Cymbopogon - fam. Poacées
-Cymbopogon citratus - Citronnelle
-Cyn
-Cynara - fam. Astéracées
+Cymbopogon citratus - Citronnelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Cy</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Cyn</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Cynara - fam. Astéracées
 Cynara cardunculus - Cardon
 Cynara scolymus - Artichaut
 Cynoglossum - fam. Borraginacées
@@ -1080,9 +1946,43 @@
 Cynoglossum caninum - Cynoglosse
 Cynometra
 Cynosurus
-Cynosurus cristatus - Cynosure accrêté
-Cyp
-Cyperus - fam. Cypéracées
+Cynosurus cristatus - Cynosure accrêté</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cy</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Cyp</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Cyperus - fam. Cypéracées
 Cyperus albostriatus ou Cyperus diffusus - Souchet diffus
 Cyperus alternifolius ou Cyperus flabelliformis - Cyperus à feuilles alternes
 Cyperus articulatus
@@ -1102,9 +2002,43 @@
 Cyperus prolifer - Vrai papyrus nain
 Cyperus rotundus - souchet rond
 Cyperus tegetiformis - Shichitoi
-Cyperus variegatus
-Cyt
-Cytinus - Cytinaceae
+Cyperus variegatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(C)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Cy</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Cyt</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cytinus - Cytinaceae
 Cytinus hypocistis - Cytinelle ou Cytinet
 Cytisophyllum - fam. Fabaceae
 Cytisophyllum sessilifolium - Cytise à feuilles sessiles (syn. Cytisus sessilifolius)
